--- a/AGMPOP.Web/wwwroot/Uploads/Templete/Excel/Territories.xlsx
+++ b/AGMPOP.Web/wwwroot/Uploads/Templete/Excel/Territories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TFS\POPAGM\AGMPOP_Core\AGMPOP.Web\wwwroot\Uploads\Templete\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,13 @@
     <t>Territory</t>
   </si>
   <si>
-    <t>Sub Territory</t>
-  </si>
-  <si>
     <t>egypt</t>
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>Parent Territory</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
   <autoFilter ref="A1:B31"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Territory"/>
-    <tableColumn id="2" name="Sub Territory"/>
+    <tableColumn id="2" name="Parent Territory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -383,7 +383,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,15 +397,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
